--- a/data/organisation_alpha.xlsx
+++ b/data/organisation_alpha.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiendcu/OneDrive/Projects/mt5000/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8450044b23c22788/Projects/mt611/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6D6D94-0F13-1F4F-95EC-41457D5047FA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="20120" windowHeight="8000"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="employee_d&amp;d_excerpt" sheetId="1" r:id="rId1"/>
+    <sheet name="list_employees_2020" sheetId="1" r:id="rId1"/>
     <sheet name="salary_2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2456,7 +2447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3315,7 +3306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4511,7 +4502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/organisation_alpha.xlsx
+++ b/data/organisation_alpha.xlsx
@@ -1,27 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8450044b23c22788/Projects/mt611/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD6D6D94-0F13-1F4F-95EC-41457D5047FA}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{E2DF9D7E-076D-E742-BFE8-36A15B649338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45ED33FA-0BD3-4A44-8B30-671D456C64EF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="list_employees_2020" sheetId="1" r:id="rId1"/>
-    <sheet name="salary_2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="list_employees_2020" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="salary_2017" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">list_employees_2020!$A$1:$U$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="813">
   <si>
     <t>first_name</t>
   </si>
@@ -2442,6 +2463,24 @@
   </si>
   <si>
     <t>bHlDL</t>
+  </si>
+  <si>
+    <t>js_score</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Average of salary_2019</t>
   </si>
 </sst>
 </file>
@@ -2926,8 +2965,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2986,10 +3030,632 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45625.488492708333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{C4C91317-7599-0549-82C3-88B08B0004F9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:U1048576" sheet="list_employees_2020"/>
+  </cacheSource>
+  <cacheFields count="21">
+    <cacheField name="employee_code" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="first_name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="last_name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="email" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="gender" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Male"/>
+        <s v="Female"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="age" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20" maxValue="60"/>
+    </cacheField>
+    <cacheField name="ip_address" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="location" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="Ireland"/>
+        <s v="Australia"/>
+        <s v="France"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="job_title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="salary_2018" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9055.9819690000004" maxValue="48511.435369999999"/>
+    </cacheField>
+    <cacheField name="salary_2019" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5813.0512049999998" maxValue="49603.192710000003"/>
+    </cacheField>
+    <cacheField name="q1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="q2" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="q3" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="q4" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="q5" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="q6" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="q7" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="q8" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="q9" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="js_score" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.6666666666666665" maxValue="3.4444444444444446"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <s v="0EWwT"/>
+    <s v="Zared"/>
+    <s v="Cuseick"/>
+    <s v="zcuseick0@seattletimes.com"/>
+    <x v="0"/>
+    <n v="34"/>
+    <s v="63.52.73.54"/>
+    <x v="0"/>
+    <s v="Administrative Officer"/>
+    <n v="15085.37509"/>
+    <n v="32577.026399999999"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3.4444444444444446"/>
+  </r>
+  <r>
+    <s v="UZQso"/>
+    <s v="Lynnell"/>
+    <s v="Townes"/>
+    <s v="ltownes1@statcounter.com"/>
+    <x v="1"/>
+    <n v="40"/>
+    <s v="38.27.168.242"/>
+    <x v="0"/>
+    <s v="Data Analyst"/>
+    <n v="31207.270270000001"/>
+    <n v="43795.841090000002"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="A1xvL"/>
+    <s v="Drusy"/>
+    <s v="Juett"/>
+    <s v="djuett2@nba.com"/>
+    <x v="1"/>
+    <n v="40"/>
+    <s v="55.60.77.180"/>
+    <x v="0"/>
+    <s v="Administrative Officer"/>
+    <n v="45548.54866"/>
+    <n v="5813.0512049999998"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2.8888888888888888"/>
+  </r>
+  <r>
+    <s v="4iWko"/>
+    <s v="Lulita"/>
+    <s v="Goward"/>
+    <s v="lgoward3@wikispaces.com"/>
+    <x v="1"/>
+    <n v="57"/>
+    <s v="139.248.39.236"/>
+    <x v="0"/>
+    <s v="Support Technician"/>
+    <n v="9055.9819690000004"/>
+    <n v="11106.76519"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="buAWp"/>
+    <s v="Burgess"/>
+    <s v="Hugonet"/>
+    <s v="bhugonet4@purevolume.com"/>
+    <x v="0"/>
+    <n v="34"/>
+    <s v="70.221.62.120"/>
+    <x v="1"/>
+    <s v="Administrative Officer"/>
+    <n v="17898.898130000001"/>
+    <n v="31550.593219999999"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3.2222222222222223"/>
+  </r>
+  <r>
+    <s v="PXjwE"/>
+    <s v="Korie"/>
+    <s v="Steward"/>
+    <s v="ksteward5@cnet.com"/>
+    <x v="1"/>
+    <n v="24"/>
+    <s v="131.220.62.207"/>
+    <x v="2"/>
+    <s v="Administrative Officer"/>
+    <n v="48511.435369999999"/>
+    <n v="25062.986339999999"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2.8888888888888888"/>
+  </r>
+  <r>
+    <s v="xc4aS"/>
+    <s v="Riccardo"/>
+    <s v="Vogelein"/>
+    <s v="rvogelein6@telegraph.co.uk"/>
+    <x v="0"/>
+    <n v="38"/>
+    <s v="2.250.145.105"/>
+    <x v="1"/>
+    <s v="Administrative Officer"/>
+    <n v="32299.75578"/>
+    <n v="33089.395270000001"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="8z8ZJ"/>
+    <s v="Tiebout"/>
+    <s v="Gagan"/>
+    <s v="tgagan7@tuttocitta.it"/>
+    <x v="0"/>
+    <n v="46"/>
+    <s v="155.41.45.153"/>
+    <x v="0"/>
+    <s v="Data Analyst"/>
+    <n v="27300.12644"/>
+    <n v="45482.430809999998"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3.3333333333333335"/>
+  </r>
+  <r>
+    <s v="TAi7r"/>
+    <s v="Rhona"/>
+    <s v="Earry"/>
+    <s v="rearry8@free.fr"/>
+    <x v="1"/>
+    <n v="39"/>
+    <s v="249.198.29.153"/>
+    <x v="0"/>
+    <s v="Administrative Officer"/>
+    <n v="15086.9007"/>
+    <n v="29463.34504"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2.6666666666666665"/>
+  </r>
+  <r>
+    <s v="jkBq3"/>
+    <s v="Filberto"/>
+    <s v="Shatliffe"/>
+    <s v="fshatliffe9@yellowpages.com"/>
+    <x v="0"/>
+    <n v="60"/>
+    <s v="92.102.205.192"/>
+    <x v="0"/>
+    <s v="Software Engineer"/>
+    <n v="26349.327089999999"/>
+    <n v="43442.040869999997"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="3.2222222222222223"/>
+  </r>
+  <r>
+    <s v="bHlDL"/>
+    <s v="Rosa"/>
+    <s v="Rosendahl"/>
+    <s v="rrosendahla@hud.gov"/>
+    <x v="1"/>
+    <n v="20"/>
+    <s v="31.60.46.223"/>
+    <x v="1"/>
+    <s v="Administrative Officer"/>
+    <n v="41813.902750000001"/>
+    <n v="27909.14183"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="2.7777777777777777"/>
+  </r>
+  <r>
+    <s v="LD51P"/>
+    <s v="Brockie"/>
+    <s v="Barnett"/>
+    <s v="bbarnettb@nbcnews.com"/>
+    <x v="0"/>
+    <n v="20"/>
+    <s v="252.186.206.254"/>
+    <x v="0"/>
+    <s v="Administrative Officer"/>
+    <n v="42300.10241"/>
+    <n v="32382.19687"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="2.7777777777777777"/>
+  </r>
+  <r>
+    <s v="kH31E"/>
+    <s v="Gregorio"/>
+    <s v="Buddington"/>
+    <s v="gbuddingtonc@harvard.edu"/>
+    <x v="0"/>
+    <n v="57"/>
+    <s v="85.91.181.191"/>
+    <x v="2"/>
+    <s v="Software Engineer"/>
+    <n v="41482.906940000001"/>
+    <n v="42748.008370000003"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3.2222222222222223"/>
+  </r>
+  <r>
+    <s v="smBlY"/>
+    <s v="Jules"/>
+    <s v="Willford"/>
+    <s v="jwillfordd@cdc.gov"/>
+    <x v="0"/>
+    <n v="28"/>
+    <s v="167.253.4.192"/>
+    <x v="2"/>
+    <s v="Administrative Officer"/>
+    <n v="42742.048999999999"/>
+    <n v="31671.982"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3.1111111111111112"/>
+  </r>
+  <r>
+    <s v="ZC8tu"/>
+    <s v="Kevina"/>
+    <s v="Napton"/>
+    <s v="knaptone@geocities.com"/>
+    <x v="1"/>
+    <n v="34"/>
+    <s v="228.75.65.128"/>
+    <x v="0"/>
+    <s v="Support Technician"/>
+    <n v="23090.606930000002"/>
+    <n v="19380.88654"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="3.2222222222222223"/>
+  </r>
+  <r>
+    <s v="43vVt"/>
+    <s v="Duff"/>
+    <s v="Frier"/>
+    <s v="dfrierf@cam.ac.uk"/>
+    <x v="0"/>
+    <n v="28"/>
+    <s v="185.166.89.50"/>
+    <x v="2"/>
+    <s v="Web Developer"/>
+    <n v="44651.651709999998"/>
+    <n v="49603.192710000003"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="2.7777777777777777"/>
+  </r>
+  <r>
+    <s v="ZO3wA"/>
+    <s v="Leona"/>
+    <s v="Mealham"/>
+    <s v="lmealhamg@businessweek.com"/>
+    <x v="1"/>
+    <n v="58"/>
+    <s v="39.99.12.81"/>
+    <x v="1"/>
+    <s v="Software Engineer"/>
+    <n v="33470.69846"/>
+    <n v="12329.592269999999"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <s v="xeYIU"/>
+    <s v="Zsazsa"/>
+    <s v="Teece"/>
+    <s v="zteeceh@narod.ru"/>
+    <x v="1"/>
+    <n v="56"/>
+    <s v="58.145.254.46"/>
+    <x v="0"/>
+    <s v="Web Developer"/>
+    <n v="37314.254930000003"/>
+    <n v="45213.062010000001"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{778D9C03-AD88-C746-8930-0C096520E376}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of salary_2019" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3027,9 +3693,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3062,26 +3728,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3114,26 +3763,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3306,11 +3938,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C5DECE-9381-3546-A824-6FAE247759AB}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20119.367050000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32319.994245000002</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>26219.680647499998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>25062.986339999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41341.06102666667</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>37271.542354999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25795.49184583333</v>
+      </c>
+      <c r="C7" s="3">
+        <v>38470.923737499994</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>30865.664602499997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" s="3">
+        <v>24452.741279444446</v>
+      </c>
+      <c r="C9" s="3">
+        <v>38060.762946666669</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>31256.752113055554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="V2" sqref="V2:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3318,7 +4066,7 @@
     <col min="1" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3379,8 +4127,14 @@
       <c r="T1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>807</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -3441,8 +4195,16 @@
       <c r="T2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <f>AVERAGE(L2:T2)</f>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="V2">
+        <f>VLOOKUP(A2,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>30949.062941546999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>803</v>
       </c>
@@ -3503,8 +4265,16 @@
       <c r="T3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <f t="shared" ref="U3:U19" si="0">AVERAGE(L3:T3)</f>
+        <v>3</v>
+      </c>
+      <c r="V3" t="e">
+        <f>VLOOKUP(A3,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>713</v>
       </c>
@@ -3565,8 +4335,16 @@
       <c r="T4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="V4">
+        <f>VLOOKUP(A4,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>22636.2936188641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>531</v>
       </c>
@@ -3627,8 +4405,16 @@
       <c r="T5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <f>VLOOKUP(A5,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>9442.0300991130698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>723</v>
       </c>
@@ -3689,8 +4475,16 @@
       <c r="T6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="V6">
+        <f>VLOOKUP(A6,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>32096.664051756699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>547</v>
       </c>
@@ -3751,8 +4545,16 @@
       <c r="T7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="V7">
+        <f>VLOOKUP(A7,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>7510.5236063904504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>804</v>
       </c>
@@ -3813,8 +4615,16 @@
       <c r="T8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V8" t="e">
+        <f>VLOOKUP(A8,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>805</v>
       </c>
@@ -3875,8 +4685,16 @@
       <c r="T9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="V9" t="e">
+        <f>VLOOKUP(A9,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -3937,8 +4755,16 @@
       <c r="T10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="V10">
+        <f>VLOOKUP(A10,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>16902.852026143199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -3999,8 +4825,16 @@
       <c r="T11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="V11">
+        <f>VLOOKUP(A11,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>41024.9010512893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>806</v>
       </c>
@@ -4061,8 +4895,16 @@
       <c r="T12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="V12" t="e">
+        <f>VLOOKUP(A12,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>721</v>
       </c>
@@ -4123,8 +4965,16 @@
       <c r="T13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="V13">
+        <f>VLOOKUP(A13,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>30676.548273870801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -4185,8 +5035,16 @@
       <c r="T14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="V14">
+        <f>VLOOKUP(A14,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>40976.430193170701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>765</v>
       </c>
@@ -4247,8 +5105,16 @@
       <c r="T15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="V15">
+        <f>VLOOKUP(A15,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>31094.774596272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>384</v>
       </c>
@@ -4309,8 +5175,16 @@
       <c r="T16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>3.2222222222222223</v>
+      </c>
+      <c r="V16">
+        <f>VLOOKUP(A16,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>19526.778579238999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>470</v>
       </c>
@@ -4371,8 +5245,16 @@
       <c r="T17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="V17">
+        <f>VLOOKUP(A17,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>48839.943163397103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>504</v>
       </c>
@@ -4433,8 +5315,16 @@
       <c r="T18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <f>VLOOKUP(A18,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>24142.599472730199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -4494,6 +5384,14 @@
       </c>
       <c r="T19">
         <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <f>VLOOKUP(A19,salary_2017!$A$1:$B$701,2,FALSE)</f>
+        <v>24432.124652858402</v>
       </c>
     </row>
   </sheetData>
@@ -4501,12 +5399,71 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BBDA4B-5B25-264E-B206-2A8C1AB25BDC}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>20119.367050000001</v>
+      </c>
+      <c r="C2">
+        <v>32319.994245000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>25062.986339999999</v>
+      </c>
+      <c r="C3">
+        <v>41341.06102666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>25795.49184583333</v>
+      </c>
+      <c r="C4">
+        <v>38470.923737499994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B701"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A65536"/>
+    <sheetView topLeftCell="A665" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
